--- a/biology/Botanique/Arboretum_du_Chêne-Vert/Arboretum_du_Chêne-Vert.xlsx
+++ b/biology/Botanique/Arboretum_du_Chêne-Vert/Arboretum_du_Chêne-Vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_du_Ch%C3%AAne-Vert</t>
+          <t>Arboretum_du_Chêne-Vert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arboretum du Chêne-Vert est une collection végétale de trois hectares, située sur la commune française de Chabanais dans la Charente en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_du_Ch%C3%AAne-Vert</t>
+          <t>Arboretum_du_Chêne-Vert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum, de type "paysager" s'implante sur trois hectares d'une petite propriété agricole familiale morcelée.
 Au bord de la route nationale, entre Angoulême et Limoges (sortie 69), au moment où la Vienne contourne le pied du Massif central, l'arboretum marque l'entrée limousine de Chabanais, village de moins de deux mille habitants, cœur de la Charente-limousine arrachée du Limousin Granitique pour être annexée au département de la Charente Calcaire.
